--- a/Code_python/Data/USDJPY.xlsx
+++ b/Code_python/Data/USDJPY.xlsx
@@ -60013,7 +60013,7 @@
         <v>5420</v>
       </c>
       <c r="B5422">
-        <v>103.7839965820312</v>
+        <v>103.7929992675781</v>
       </c>
     </row>
   </sheetData>
